--- a/Dossier de Fabrication/Bill of Materials-Michel.xlsx
+++ b/Dossier de Fabrication/Bill of Materials-Michel.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bocal\Desktop\electronic-levelup-hardware\Michel\Project Outputs for Michel\BOM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="15450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19980"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Michel" sheetId="1" r:id="rId1"/>
@@ -842,6 +837,21 @@
     <t>http://www.farnell.com/datasheets/29611.pdf</t>
   </si>
   <si>
+    <t>C39, C40, C41, C115, C124, C129, C133, C135, C137, C138, C140, C159, C185, C186, C187, C188, C189, C207, C208, C209</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C0603T104K5RALTU</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>2522432</t>
+  </si>
+  <si>
     <t>C47, C106, C108</t>
   </si>
   <si>
@@ -947,9 +957,6 @@
     <t>C14, C16, C17, C20, C21, C23, C24, C25, C26, C27, C28, C29, C30, C31, C32, C33, C34, C35, C36, C37, C38, C42, C48, C49, C50, C52, C53, C54, C55, C56, C57, C58, C59, C60, C61, C62, C63, C64, C65, C66, C67, C68, C69, C70, C71, C72, C73, C74, C75, C76, C77, C78, C79, C80, C81, C82, C87, C88, C89, C90, C91, C92, C93, C94, C96, C97, C98, C99, C100, C101, C102, C103, C104, C109, C110, C111, C112, C113</t>
   </si>
   <si>
-    <t>100nF</t>
-  </si>
-  <si>
     <t>MC0402N101J160CT</t>
   </si>
   <si>
@@ -1019,18 +1026,6 @@
     <t>http://www.farnell.com/datasheets/2189072.pdf</t>
   </si>
   <si>
-    <t>C39, C40, C41, C115, C124, C129, C133, C135, C137, C138, C140, C159, C185, C186, C187, C188, C189, C207, C208, C209</t>
-  </si>
-  <si>
-    <t>CLLC1AX7R0G104M050AC</t>
-  </si>
-  <si>
-    <t>2710102</t>
-  </si>
-  <si>
-    <t>http://www.farnell.com/datasheets/2138429.pdf</t>
-  </si>
-  <si>
     <t>Q4</t>
   </si>
   <si>
@@ -1070,6 +1065,21 @@
     <t>http://www.farnell.com/datasheets/866888.pdf</t>
   </si>
   <si>
+    <t>C121, C128</t>
+  </si>
+  <si>
+    <t>1500pF</t>
+  </si>
+  <si>
+    <t>C0603C152K1RACAUTO</t>
+  </si>
+  <si>
+    <t>2810266</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/2048264.pdf</t>
+  </si>
+  <si>
     <t>P1</t>
   </si>
   <si>
@@ -1101,21 +1111,6 @@
   </si>
   <si>
     <t>http://www.farnell.com/datasheets/2044143.pdf</t>
-  </si>
-  <si>
-    <t>C121, C128</t>
-  </si>
-  <si>
-    <t>1500pF</t>
-  </si>
-  <si>
-    <t>GRM1885C1H152JA01D</t>
-  </si>
-  <si>
-    <t>8819939</t>
-  </si>
-  <si>
-    <t>http://www.farnell.com/datasheets/2048264.pdf</t>
   </si>
   <si>
     <t>Q3</t>
@@ -3253,77 +3248,77 @@
         <v>274</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H46" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>278</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="3">
-        <v>5</v>
-      </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="K47" s="2" t="s">
-        <v>168</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>285</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>286</v>
@@ -3332,36 +3327,36 @@
         <v>17</v>
       </c>
       <c r="H48" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>17</v>
@@ -3370,13 +3365,13 @@
         <v>2</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>276</v>
+        <v>92</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>291</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3405,10 +3400,10 @@
         <v>2</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>296</v>
@@ -3422,13 +3417,13 @@
         <v>298</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>299</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>300</v>
@@ -3437,33 +3432,33 @@
         <v>17</v>
       </c>
       <c r="H51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>92</v>
+        <v>281</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>19</v>
+        <v>282</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>22</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>304</v>
+        <v>39</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>305</v>
@@ -3472,7 +3467,7 @@
         <v>17</v>
       </c>
       <c r="H52" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>92</v>
@@ -3492,31 +3487,31 @@
         <v>307</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>308</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>101</v>
+        <v>309</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H53" s="3">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>276</v>
+        <v>92</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>310</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3524,60 +3519,60 @@
         <v>311</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="3">
+        <v>78</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="3">
-        <v>4</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H55" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>18</v>
@@ -3586,33 +3581,33 @@
         <v>19</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H56" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>18</v>
@@ -3621,59 +3616,59 @@
         <v>19</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="G57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H57" s="3">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>332</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>333</v>
@@ -3682,10 +3677,10 @@
         <v>17</v>
       </c>
       <c r="H58" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>19</v>
@@ -3769,16 +3764,16 @@
         <v>348</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>22</v>
+        <v>349</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>349</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>350</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>351</v>
@@ -3787,16 +3782,16 @@
         <v>17</v>
       </c>
       <c r="H61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3807,13 +3802,13 @@
         <v>22</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>267</v>
+        <v>354</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>355</v>
+        <v>262</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>356</v>
@@ -3831,39 +3826,39 @@
         <v>22</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>358</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="3">
-        <v>2</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="J63" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>363</v>
